--- a/biology/Botanique/Mabea_taquari/Mabea_taquari.xlsx
+++ b/biology/Botanique/Mabea_taquari/Mabea_taquari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mabea taquari est une espèce de plantes à fleurs de la famille des Euphorbiaceae (famille du ricin). C'est un arbuste sud-américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En créole guyanais, un « Takari » est une perche de bois utilisée pour guider les embarcations.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mabea taquari est un arbuste ou un arbre atteignant 8-15 m de haut, parfois grimpant.
 Les jeunes rameaux, les inflorescences et les nervures de la face inférieure des feuilles, sont couverts de poils ramifiés dendroïdes brun rouille.
@@ -552,7 +568,7 @@
 Le limbe des feuilles mesurant (4)4,5–11(–17) × (1,5)2–5(–6) cm (environ deux fois plus long que large), est de forme elliptique ou lancéolée-elliptique, brusquement acuminée ou aiguë à l'apex, et à base obtuse ou cordée.
 Les marges sont entières ou légèrement dentées en scie, avec un distance de (2–)3–5 mm entre les dents, et avec 0–10(–30) glandes par côté (0,15–0,4 mm de diamètre).
 La nervation réticulée est très distincte sur la face inférieure des feuilles séchées (le limbe apparaît blanchâtre entre les nervures).
-L'inflorescence est paniculée ou en thyrse, longue de 4-8 cm pour 1,6-4 cm de large avec une partie mâle séparée de la partie femelle[4].
+L'inflorescence est paniculée ou en thyrse, longue de 4-8 cm pour 1,6-4 cm de large avec une partie mâle séparée de la partie femelle.
 Les bractées florales sont longues de 2–4 mm, et portent des glandes qui ne sont jamais décurrentes sur l'axe.
 La partie staminée (mâle) des inflorescences est longue de 3–11 × 2–3 cm pour 0,4–4,5 cm de diamètre.
 Les axes des ombelles sont longs de 2-4 mm, avec de grosses glandes presque sessiles à l'apex, et chacun porte 3 fleurs.
@@ -562,7 +578,7 @@
 Les sépales sont longs de 2–4 mm.
 L'ovaire est lisse.
 La colonne du style est tomenteuse, longue de 2–9(–15) mm, avec ± 5 mm pour sa partie libre.
-Les fruits sont des capsules globuleuses, tomenteuses de couleur rouille, mesurant 8–18 mm de diamètre (sans le style), et parfois ornées de protubérances dorsales (muriquées)[5],[6].
+Les fruits sont des capsules globuleuses, tomenteuses de couleur rouille, mesurant 8–18 mm de diamètre (sans le style), et parfois ornées de protubérances dorsales (muriquées),.
 </t>
         </is>
       </c>
@@ -591,9 +607,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Mabea taquari au Venezuela (Delta Amacuro, Bolívar, Amazonas, Monagas), à Trinidad, au Guyana, au Suriname, en Guyane et dans l'est du bassin amazonien[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Mabea taquari au Venezuela (Delta Amacuro, Bolívar, Amazonas, Monagas), à Trinidad, au Guyana, au Suriname, en Guyane et dans l'est du bassin amazonien.
 </t>
         </is>
       </c>
@@ -622,11 +640,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Venezuela, Mabea taquari affectionne les berges de rivières, les plages de sable, les forêts, broussailles et affleurements granitiques proches des cours d'eau, autour de 100–900 m d'altitude[6].
-Le Ouakari à tête noire (Cacajao melanocephalus) consomme la partie basale des feuilles de Mabea taquari (en évitant la nervure principale, probablement pour éviter le latex) dans les igapó haute du Brésil[7].
-La décomposition des feuilles de Mabea taquari dans la litière a été abordée[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Venezuela, Mabea taquari affectionne les berges de rivières, les plages de sable, les forêts, broussailles et affleurements granitiques proches des cours d'eau, autour de 100–900 m d'altitude.
+Le Ouakari à tête noire (Cacajao melanocephalus) consomme la partie basale des feuilles de Mabea taquari (en évitant la nervure principale, probablement pour éviter le latex) dans les igapó haute du Brésil.
+La décomposition des feuilles de Mabea taquari dans la litière a été abordée.
 </t>
         </is>
       </c>
@@ -655,9 +675,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[9] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « MABEA (Taquari) folio ovato, obtuſo, ſubtùs venis rubris notato. (Tabula 334. Fig. 2.)
 Frutex hic differt à præcedenti, cortice rabicundo ; foliis ovaco-oblongis, obtuſis, acutis, venis rubris ſubtùs notatis, &amp; fructu craſſiore.
 Florebat eodem tempore.
